--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -782,14 +782,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -691,11 +691,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -691,10 +691,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -691,11 +691,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -60,7 +60,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -70,6 +70,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -693,7 +693,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -698,11 +698,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -277,122 +277,122 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="19">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="15">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/BasicTable.xlsx
@@ -58,7 +58,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -307,7 +307,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -319,7 +319,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -376,7 +376,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -392,7 +392,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
